--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2723076.501766301</v>
+        <v>2798606.171431106</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>112.2544724830377</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>290.7979513441703</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -826,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>79.32920716089167</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -880,7 +882,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>224.7502551838229</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>155.6114311958879</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>6.925621452316941</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>94.65568569260671</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>133.670938602772</v>
+        <v>38.03877205039434</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>109.9493368428667</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>12.60471623380398</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1585,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>272.7343538200768</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>106.0213670654568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>95.24383643285925</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>176.8407062429506</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274269</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>17.27100158575345</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>131.4821514811436</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>215.7053919670793</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>42.7396614681393</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>148.9042139439607</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>116.105616529347</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>56.6442369652985</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>141.9899522509779</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>88.36919139161152</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>202.090862134473</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.2037554398983</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>144.4797853959763</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3664,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>72.11977035401871</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>122.65197883716</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>109.4174993495444</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>11.89446409565929</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>92.83103086672321</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1485.892406545185</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="C2" t="n">
-        <v>1116.929889604773</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D2" t="n">
-        <v>758.6641909980228</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>758.6641909980228</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>347.6782862084153</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4364,16 +4366,16 @@
         <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>1485.892406545185</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y2" t="n">
-        <v>1485.892406545185</v>
+        <v>1816.955293888756</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,19 +4421,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694736</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C4" t="n">
-        <v>438.7118141694736</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D4" t="n">
-        <v>438.7118141694736</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E4" t="n">
-        <v>438.7118141694736</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>291.8218666715633</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
         <v>211.6913543878343</v>
@@ -4528,10 +4530,10 @@
         <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1251.855211652197</v>
+        <v>976.0491016702019</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>976.0491016702019</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>617.7834030634515</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>231.9951504652072</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>225.0496497160038</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>211.1262456545947</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2635.124824324153</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.363038962244</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2381.363038962244</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2028.59438369213</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X5" t="n">
-        <v>2028.59438369213</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y5" t="n">
-        <v>1638.455051716319</v>
+        <v>976.0491016702019</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>149.5547855502702</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>149.5547855502702</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>149.5547855502702</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>149.5547855502702</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1529.645519427256</v>
+        <v>1039.703785687808</v>
       </c>
       <c r="C8" t="n">
-        <v>1529.645519427256</v>
+        <v>670.7412687473968</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.379820820506</v>
+        <v>670.7412687473968</v>
       </c>
       <c r="E8" t="n">
-        <v>1171.379820820506</v>
+        <v>670.7412687473968</v>
       </c>
       <c r="F8" t="n">
-        <v>760.393916030898</v>
+        <v>663.7957679981934</v>
       </c>
       <c r="G8" t="n">
-        <v>342.4301079290849</v>
+        <v>245.8319598963802</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X8" t="n">
-        <v>1916.245359491378</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y8" t="n">
-        <v>1916.245359491378</v>
+        <v>1426.30362575193</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4883,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>587.6521288551403</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="C10" t="n">
-        <v>418.7159459272334</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148977</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>66.67501842016645</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>224.4233909876363</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5032,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028562</v>
@@ -5042,25 +5044,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.4221461351941</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="C13" t="n">
-        <v>563.4221461351941</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D13" t="n">
-        <v>413.3055067228584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W13" t="n">
-        <v>898.5039869983193</v>
+        <v>857.6674326309349</v>
       </c>
       <c r="X13" t="n">
-        <v>670.514436100302</v>
+        <v>857.6674326309349</v>
       </c>
       <c r="Y13" t="n">
-        <v>563.4221461351941</v>
+        <v>857.6674326309349</v>
       </c>
     </row>
     <row r="14">
@@ -5255,10 +5257,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,40 +5269,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1402.710375171176</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1202.790365086728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1202.790365086728</v>
       </c>
       <c r="U16" t="n">
-        <v>896.58386925998</v>
+        <v>1202.790365086728</v>
       </c>
       <c r="V16" t="n">
-        <v>896.58386925998</v>
+        <v>948.1058768808413</v>
       </c>
       <c r="W16" t="n">
-        <v>896.58386925998</v>
+        <v>948.1058768808413</v>
       </c>
       <c r="X16" t="n">
-        <v>668.5943183619627</v>
+        <v>948.1058768808413</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.8017392184325</v>
+        <v>727.3132977373111</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080549</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822482</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341676</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>265.0805560595683</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>265.0805560595683</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>265.0805560595683</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>964.135741824786</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>674.7185717878253</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028589</v>
+        <v>446.729020889808</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>446.729020889808</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5743,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5774,7 +5776,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5826,19 +5828,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>316.9584588710875</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N21" t="n">
         <v>1661.954360834046</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>4058.209786815906</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.273603887999</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.273603887999</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>3756.463349866642</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655742</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286137</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="X22" t="n">
-        <v>665.6859735286137</v>
+        <v>4460.650830789676</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.8017392184325</v>
+        <v>4239.858251646146</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5968,28 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250804</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095317</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.474758001781</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281742</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945775</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164473</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698579</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1455.74489533756</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1455.74489533756</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1455.74489533756</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>1166.616256551118</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>911.9317683452309</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336716</v>
+        <v>622.5145983082703</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6224,13 +6226,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>3128.721707800139</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>3436.041841080101</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>3765.904468744134</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>4045.444533962831</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>545.8631874464246</v>
+        <v>4018.11458065703</v>
       </c>
       <c r="C28" t="n">
-        <v>376.9270045185177</v>
+        <v>4018.11458065703</v>
       </c>
       <c r="D28" t="n">
-        <v>376.9270045185177</v>
+        <v>3867.997941244694</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185177</v>
+        <v>3867.997941244694</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1237.432870206636</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>1237.432870206636</v>
+        <v>4743.576172479598</v>
       </c>
       <c r="U28" t="n">
-        <v>948.3042314201945</v>
+        <v>4454.447533693156</v>
       </c>
       <c r="V28" t="n">
-        <v>948.3042314201945</v>
+        <v>4199.76304548727</v>
       </c>
       <c r="W28" t="n">
-        <v>948.3042314201945</v>
+        <v>4199.76304548727</v>
       </c>
       <c r="X28" t="n">
-        <v>948.3042314201945</v>
+        <v>4199.76304548727</v>
       </c>
       <c r="Y28" t="n">
-        <v>727.5116522766643</v>
+        <v>4199.76304548727</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>614.2381923230585</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>921.55832560302</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>414.0663679705859</v>
+        <v>413.8811773957805</v>
       </c>
       <c r="C31" t="n">
-        <v>245.130185042679</v>
+        <v>413.8811773957805</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>1187.92115703528</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W31" t="n">
-        <v>1044.496962842373</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X31" t="n">
-        <v>816.5074119443558</v>
+        <v>816.3222213695503</v>
       </c>
       <c r="Y31" t="n">
-        <v>595.7148328008257</v>
+        <v>595.5296422260202</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6691,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6722,7 +6724,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>414.0663679705859</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6883,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1094.864076499239</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>1094.864076499239</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>1094.864076499239</v>
       </c>
       <c r="W34" t="n">
-        <v>731.3177283550796</v>
+        <v>805.4469064622789</v>
       </c>
       <c r="X34" t="n">
-        <v>503.3281774570622</v>
+        <v>577.4573555642615</v>
       </c>
       <c r="Y34" t="n">
-        <v>503.3281774570622</v>
+        <v>356.6647764207315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,73 +6916,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.193690363625</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>861.4909633328887</v>
+        <v>3716.629162462381</v>
       </c>
       <c r="C37" t="n">
-        <v>692.5547804049818</v>
+        <v>3716.629162462381</v>
       </c>
       <c r="D37" t="n">
-        <v>542.438140992646</v>
+        <v>3716.629162462381</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>3716.629162462381</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>3716.629162462381</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>4260.730820705228</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>4006.046332499342</v>
       </c>
       <c r="W37" t="n">
-        <v>1244.231782352015</v>
+        <v>3716.629162462381</v>
       </c>
       <c r="X37" t="n">
-        <v>1016.242231453998</v>
+        <v>3716.629162462381</v>
       </c>
       <c r="Y37" t="n">
-        <v>1016.242231453998</v>
+        <v>3716.629162462381</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7175,19 +7177,19 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7199,25 +7201,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>3850.59697693176</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>3850.59697693176</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>3777.748724048913</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>3609.573402368733</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>3850.59697693176</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7402,28 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7488,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0709201104371</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="44">
@@ -7628,37 +7630,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7667,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7731,22 +7733,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.6713633309776</v>
+        <v>807.3465877976907</v>
       </c>
       <c r="C46" t="n">
-        <v>653.6713633309776</v>
+        <v>638.4104048697839</v>
       </c>
       <c r="D46" t="n">
-        <v>503.5547239186418</v>
+        <v>488.2937654574481</v>
       </c>
       <c r="E46" t="n">
-        <v>355.6416303362487</v>
+        <v>488.2937654574481</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>341.4038179595377</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>341.4038179595377</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>190.985809507481</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7840,16 +7842,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X46" t="n">
-        <v>665.6859735286132</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y46" t="n">
-        <v>665.6859735286132</v>
+        <v>988.9950526279305</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8547,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>171.2966883299264</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>180.0237016735864</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.096615172073</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,16 +9482,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>29.47535963978191</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776735</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9954,25 +9956,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>96.03744927814523</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10194,10 +10196,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>80.50021372615271</v>
       </c>
       <c r="M30" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10597,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119861</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>94.13752431970619</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,13 +10834,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>165.9802687929766</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>288.4091825776749</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11379,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675474</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23473,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>13.78864451651418</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>112.563286286638</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>14.72051597093355</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>109.3966461556267</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>129.1629610608157</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>14.95181116542557</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.879261385015496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>67.22469093565348</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>49.01659603964259</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>105.4419445290423</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>91.97123605291385</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>144.5330460856131</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.46278879032577</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25093,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>19.45669892391621</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.62822474203898</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>22.01378306740131</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25552,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>76.49570266419364</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>103.0576765518772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>39.19797366866791</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>167.937516086278</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>17.58821459754878</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783893.4803848271</v>
+        <v>783893.4803848272</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>783893.4803848274</v>
+        <v>783893.4803848272</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>783893.4803848272</v>
+        <v>783893.4803848274</v>
       </c>
     </row>
     <row r="9">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448195</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448194</v>
-      </c>
       <c r="E2" t="n">
-        <v>606095.0425934481</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="G2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="H2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>606095.0425934489</v>
+      </c>
+      <c r="K2" t="n">
+        <v>606095.0425934482</v>
+      </c>
+      <c r="L2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="J2" t="n">
-        <v>606095.042593448</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="N2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="O2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="P2" t="n">
         <v>606095.0425934483</v>
-      </c>
-      <c r="L2" t="n">
-        <v>606095.0425934488</v>
-      </c>
-      <c r="M2" t="n">
-        <v>606095.0425934483</v>
-      </c>
-      <c r="N2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="O2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="P2" t="n">
-        <v>606095.0425934484</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26424,22 +26426,22 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687056</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687058</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="J4" t="n">
         <v>22174.6075868707</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.6075868707</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
@@ -26448,10 +26450,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687069</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687067</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26476,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202152.4534196584</v>
+        <v>-202152.4534196586</v>
       </c>
       <c r="C6" t="n">
-        <v>387815.4257948857</v>
+        <v>387815.4257948858</v>
       </c>
       <c r="D6" t="n">
         <v>387815.4257948856</v>
       </c>
       <c r="E6" t="n">
-        <v>-33226.92741903511</v>
+        <v>-33226.92741903494</v>
       </c>
       <c r="F6" t="n">
         <v>491933.1090578614</v>
@@ -26537,31 +26539,31 @@
         <v>491933.1090578611</v>
       </c>
       <c r="H6" t="n">
+        <v>491933.1090578613</v>
+      </c>
+      <c r="I6" t="n">
         <v>491933.1090578611</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
+        <v>315509.8898652686</v>
+      </c>
+      <c r="K6" t="n">
+        <v>491933.1090578609</v>
+      </c>
+      <c r="L6" t="n">
         <v>491933.1090578613</v>
       </c>
-      <c r="J6" t="n">
-        <v>315509.8898652677</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
+        <v>357132.093824024</v>
+      </c>
+      <c r="N6" t="n">
+        <v>491933.1090578615</v>
+      </c>
+      <c r="O6" t="n">
+        <v>491933.1090578615</v>
+      </c>
+      <c r="P6" t="n">
         <v>491933.109057861</v>
-      </c>
-      <c r="L6" t="n">
-        <v>491933.1090578615</v>
-      </c>
-      <c r="M6" t="n">
-        <v>357132.0938240238</v>
-      </c>
-      <c r="N6" t="n">
-        <v>491933.1090578613</v>
-      </c>
-      <c r="O6" t="n">
-        <v>491933.1090578611</v>
-      </c>
-      <c r="P6" t="n">
-        <v>491933.1090578611</v>
       </c>
     </row>
   </sheetData>
@@ -26750,34 +26752,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26802,7 +26804,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26822,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26972,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>253.0184192879699</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>122.9862186766247</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27546,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>87.98059509815924</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0.9594002052142798</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>168.3113415684692</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27667,19 +27669,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>209.5226989053409</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>85.19271039829698</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>72.6541165664442</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27828,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>190.2518341615852</v>
+        <v>285.8840007139628</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>69.88264333907061</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>122.3609055585343</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28263,7 +28265,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.12759545149386e-11</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28564,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28573,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28582,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.928873612557473e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,22 +28614,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -29998,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.07318341828168e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30289,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32227,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,10 +35017,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35185,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,10 +35266,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35653,7 +35655,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>504.4912617279393</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35744,10 +35746,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734238</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>462.3874039146946</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>180.0507982277212</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>326.2624260966948</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091983</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36674,25 +36676,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341696</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>362.6699330377951</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>329.757918682177</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,16 +37308,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081138</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>427.332097717719</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>499.1748421909894</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>570.772884818783</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38101,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2798606.171431106</v>
+        <v>2791589.156539395</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>112.2544724830377</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -709,16 +709,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>185.1847025549386</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>224.7502551838229</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>155.6114311958879</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>44.71697985001346</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.63926978364032</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>38.03877205039434</v>
+        <v>96.36163317610307</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>12.60471623380398</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>272.7343538200768</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>95.24383643285925</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1897,7 +1897,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>17.27100158575345</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,16 +2058,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>131.4821514811436</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.7396614681393</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>182.0185426809072</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>116.105616529347</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,10 +2775,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>114.9309043193592</v>
       </c>
       <c r="D31" t="n">
-        <v>56.6442369652985</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>202.090862134473</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>81.90355835744664</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>144.4797853959763</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>72.11977035401871</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>191.1743842926831</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>109.4174993495444</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>69.08435319695953</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>92.83103086672321</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1816.955293888756</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.566937845283</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2278.887658756887</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2025.125873394978</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1694.062986051408</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888756</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.955293888756</v>
+        <v>1341.294330781294</v>
       </c>
       <c r="Y2" t="n">
-        <v>1816.955293888756</v>
+        <v>1341.294330781294</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.6913543878343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>976.0491016702019</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C5" t="n">
-        <v>976.0491016702019</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>617.7834030634515</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>231.9951504652072</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>225.0496497160038</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>211.1262456545947</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2420.774247347721</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2167.012461985812</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2167.012461985812</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>2167.012461985812</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.188433646014</v>
+        <v>2167.012461985812</v>
       </c>
       <c r="Y5" t="n">
-        <v>976.0491016702019</v>
+        <v>2167.012461985812</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.5382038240415</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1039.703785687808</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>670.7412687473968</v>
+        <v>1320.241224882541</v>
       </c>
       <c r="D8" t="n">
-        <v>670.7412687473968</v>
+        <v>961.9755262757901</v>
       </c>
       <c r="E8" t="n">
-        <v>670.7412687473968</v>
+        <v>576.1872736775458</v>
       </c>
       <c r="F8" t="n">
-        <v>663.7957679981934</v>
+        <v>165.2013688879383</v>
       </c>
       <c r="G8" t="n">
-        <v>245.8319598963802</v>
+        <v>151.2779648265292</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2189.908715988822</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.442957727742</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y8" t="n">
-        <v>1426.30362575193</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224.4233909876363</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C10" t="n">
-        <v>224.4233909876363</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D10" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>66.67501842016645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4989,25 +4989,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W10" t="n">
-        <v>224.4233909876363</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X10" t="n">
-        <v>224.4233909876363</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.4233909876363</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,28 +5026,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515098</v>
@@ -5056,16 +5056,16 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
@@ -5129,16 +5129,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>676.0189678006951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>857.6674326309349</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>857.6674326309349</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>857.6674326309349</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,19 +5354,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.505047571597</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M15" t="n">
-        <v>1333.825180851558</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N15" t="n">
         <v>1833.271529962218</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1402.710375171176</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1202.790365086728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1202.790365086728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1202.790365086728</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>948.1058768808413</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>948.1058768808413</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>948.1058768808413</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>727.3132977373111</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5518,16 +5518,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4253.421048821322</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.0805560595683</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>265.0805560595683</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.0805560595683</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>964.135741824786</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>964.135741824786</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>674.7185717878253</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>446.729020889808</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>446.729020889808</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,28 +5731,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5831,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>857.5427825698952</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4058.209786815906</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3889.273603887999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3889.273603887999</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3756.463349866642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4749.779469576118</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4460.650830789676</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>4460.650830789676</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>4460.650830789676</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>4460.650830789676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4239.858251646146</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678162</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1841.189502980821</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
-        <v>2361.490124716568</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>394.5250474102529</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1455.74489533756</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1455.74489533756</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1455.74489533756</v>
+        <v>1004.064043216182</v>
       </c>
       <c r="U25" t="n">
-        <v>1166.616256551118</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="V25" t="n">
-        <v>911.9317683452309</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="W25" t="n">
-        <v>622.5145983082703</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X25" t="n">
-        <v>394.5250474102529</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y25" t="n">
-        <v>394.5250474102529</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,25 +6214,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6253,7 +6253,7 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3128.721707800139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3436.041841080101</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>3765.904468744134</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4045.444533962831</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4018.11458065703</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>4018.11458065703</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3867.997941244694</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3867.997941244694</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4743.576172479598</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4454.447533693156</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4199.76304548727</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4199.76304548727</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4199.76304548727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>4199.76304548727</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,34 +6448,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>614.2381923230585</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>921.55832560302</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2005.509969085868</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>413.8811773957805</v>
+        <v>213.3089140050932</v>
       </c>
       <c r="C31" t="n">
-        <v>413.8811773957805</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V31" t="n">
-        <v>1044.311772267568</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W31" t="n">
-        <v>1044.311772267568</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="X31" t="n">
-        <v>816.3222213695503</v>
+        <v>615.749957978863</v>
       </c>
       <c r="Y31" t="n">
-        <v>595.5296422260202</v>
+        <v>394.9573788353329</v>
       </c>
     </row>
     <row r="32">
@@ -6700,7 +6700,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>356.6647764207315</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C34" t="n">
-        <v>356.6647764207315</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D34" t="n">
-        <v>356.6647764207315</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H34" t="n">
         <v>208.7516828383384</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1094.864076499239</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1094.864076499239</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1094.864076499239</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>805.4469064622789</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>577.4573555642615</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y34" t="n">
-        <v>356.6647764207315</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="35">
@@ -6934,37 +6934,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1725.969903867171</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3716.629162462381</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>3716.629162462381</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>3716.629162462381</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3716.629162462381</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3716.629162462381</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4549.85945949167</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>4260.730820705228</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>4006.046332499342</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>3716.629162462381</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>3716.629162462381</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>3716.629162462381</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7171,37 +7171,37 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.046207783209</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3850.59697693176</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C40" t="n">
-        <v>3850.59697693176</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D40" t="n">
-        <v>3777.748724048913</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>3777.748724048913</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>3777.748724048913</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368733</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4326.074044281177</v>
+        <v>1105.890821793977</v>
       </c>
       <c r="U40" t="n">
-        <v>4326.074044281177</v>
+        <v>816.762183007535</v>
       </c>
       <c r="V40" t="n">
-        <v>4071.38955607529</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W40" t="n">
-        <v>4071.38955607529</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X40" t="n">
-        <v>4071.38955607529</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y40" t="n">
-        <v>3850.59697693176</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7411,7 +7411,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>709.4934589365143</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M42" t="n">
-        <v>1016.813592216476</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880509</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>675.007103038344</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="C43" t="n">
-        <v>506.0709201104371</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D43" t="n">
-        <v>395.5481934947356</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1429.134095611479</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1429.134095611479</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>1429.134095611479</v>
       </c>
       <c r="V43" t="n">
-        <v>675.007103038344</v>
+        <v>1429.134095611479</v>
       </c>
       <c r="W43" t="n">
-        <v>675.007103038344</v>
+        <v>1139.716925574518</v>
       </c>
       <c r="X43" t="n">
-        <v>675.007103038344</v>
+        <v>911.7273746765006</v>
       </c>
       <c r="Y43" t="n">
-        <v>675.007103038344</v>
+        <v>690.9347955329705</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,28 +7669,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>807.3465877976907</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>638.4104048697839</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>488.2937654574481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>488.2937654574481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>341.4038179595377</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>341.4038179595377</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>190.985809507481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1209.787631771461</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.787631771461</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.787631771461</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>988.9950526279305</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>171.2966883299264</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>180.0237016735864</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9479,25 +9479,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>176.7176547498452</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>96.03744927814523</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>80.50021372615271</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>94.13752431970619</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="N39" t="n">
-        <v>165.9802687929766</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>176.7176547498455</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>13.78864451651418</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>14.72051597093355</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>129.1629610608157</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>14.95181116542557</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.22469093565348</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>39.529018377482</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>105.4419445290423</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>52.3159167792686</v>
       </c>
       <c r="D31" t="n">
-        <v>91.97123605291385</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>19.45669892391621</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.8060970315905</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>22.01378306740131</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>76.49570266419364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>30.37317676570618</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>39.19797366866791</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>128.8364567866437</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>17.58821459754878</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>783893.4803848272</v>
+        <v>783893.4803848274</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>783893.4803848272</v>
+        <v>783893.4803848274</v>
       </c>
     </row>
     <row r="8">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="F2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>606095.0425934487</v>
       </c>
-      <c r="G2" t="n">
-        <v>606095.0425934484</v>
-      </c>
       <c r="H2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="I2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="I2" t="n">
-        <v>606095.0425934484</v>
-      </c>
       <c r="J2" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="K2" t="n">
         <v>606095.0425934482</v>
@@ -26349,13 +26349,13 @@
         <v>606095.0425934485</v>
       </c>
       <c r="N2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="O2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="P2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934484</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26447,13 +26447,13 @@
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="M4" t="n">
+        <v>22174.60758687066</v>
+      </c>
+      <c r="N4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202152.4534196586</v>
+        <v>-202152.4534196584</v>
       </c>
       <c r="C6" t="n">
+        <v>387815.425794886</v>
+      </c>
+      <c r="D6" t="n">
         <v>387815.4257948858</v>
       </c>
-      <c r="D6" t="n">
-        <v>387815.4257948856</v>
-      </c>
       <c r="E6" t="n">
-        <v>-33226.92741903494</v>
+        <v>-34201.51867875695</v>
       </c>
       <c r="F6" t="n">
-        <v>491933.1090578614</v>
+        <v>490958.5177981396</v>
       </c>
       <c r="G6" t="n">
-        <v>491933.1090578611</v>
+        <v>490958.5177981397</v>
       </c>
       <c r="H6" t="n">
-        <v>491933.1090578613</v>
+        <v>490958.5177981397</v>
       </c>
       <c r="I6" t="n">
-        <v>491933.1090578611</v>
+        <v>490958.5177981396</v>
       </c>
       <c r="J6" t="n">
-        <v>315509.8898652686</v>
+        <v>314535.2986055466</v>
       </c>
       <c r="K6" t="n">
-        <v>491933.1090578609</v>
+        <v>490958.5177981392</v>
       </c>
       <c r="L6" t="n">
-        <v>491933.1090578613</v>
+        <v>490958.5177981396</v>
       </c>
       <c r="M6" t="n">
-        <v>357132.093824024</v>
+        <v>356157.5025643023</v>
       </c>
       <c r="N6" t="n">
-        <v>491933.1090578615</v>
+        <v>490958.5177981396</v>
       </c>
       <c r="O6" t="n">
-        <v>491933.1090578615</v>
+        <v>490958.5177981396</v>
       </c>
       <c r="P6" t="n">
-        <v>491933.109057861</v>
+        <v>490958.5177981395</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26764,22 +26764,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>253.0184192879699</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>31.26361780271915</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27539,22 +27539,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9594002052142798</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>168.3113415684692</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>171.7313405076443</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.19271039829698</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>285.8840007139628</v>
+        <v>227.5611395882541</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>19.59084822180904</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>122.3609055585343</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35017,7 +35017,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>504.4912617279393</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35977,13 +35977,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>462.3874039146946</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>326.2624260966948</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>462.3874039146953</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>88.01303278507413</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36451,13 +36451,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>264.7306875349194</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>345.2951542341696</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36688,10 +36688,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>329.757918682177</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>570.772884818783</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>427.332097717719</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N39" t="n">
-        <v>499.1748421909894</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>425.9753597058698</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2791589.156539395</v>
+        <v>2796528.419388427</v>
       </c>
     </row>
     <row r="7">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>98.63122914173739</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>185.1847025549386</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>7.948401543480953</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481162</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>44.71697985001346</v>
+        <v>44.71697985001481</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250816</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229327</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>52.10844059186323</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>13.15972490571702</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>96.36163317610307</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229328</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>128.7835007017905</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>60.61661699143662</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151917</v>
+        <v>234.2070815573226</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385022</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>87.65220976162014</v>
       </c>
     </row>
     <row r="23">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>182.0185426809072</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>169.7438101404423</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>82.78559640792034</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>114.9309043193592</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>47.20011114811113</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3246,13 +3246,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>81.90355835744664</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056514</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>191.1743842926831</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>69.08435319695953</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1341.294330781294</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>972.3318138408822</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>614.0661152341316</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2278.887658756887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2025.125873394978</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1694.062986051408</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1341.294330781294</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1341.294330781294</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1341.294330781294</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>690.6833766322978</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>690.6833766322978</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>690.6833766322978</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>690.6833766322978</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>690.6833766322978</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>690.6833766322978</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>690.6833766322978</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>690.6833766322978</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>690.6833766322978</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>690.6833766322978</v>
       </c>
     </row>
     <row r="5">
@@ -4564,37 +4564,37 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T5" t="n">
         <v>2420.774247347721</v>
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.447464661593</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.063382757265</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414848</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.072755435192</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2643.317569050021</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1689.203741822952</v>
+        <v>1194.175505447096</v>
       </c>
       <c r="C8" t="n">
-        <v>1320.241224882541</v>
+        <v>825.2129885066845</v>
       </c>
       <c r="D8" t="n">
-        <v>961.9755262757901</v>
+        <v>466.947289899934</v>
       </c>
       <c r="E8" t="n">
-        <v>576.1872736775458</v>
+        <v>81.15903730168975</v>
       </c>
       <c r="F8" t="n">
-        <v>165.2013688879383</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>151.2779648265292</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X8" t="n">
-        <v>2465.942913862886</v>
+        <v>1970.91467748703</v>
       </c>
       <c r="Y8" t="n">
-        <v>2075.803581887074</v>
+        <v>1580.775345511218</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641983</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598703</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="C10" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551153</v>
+        <v>473.4444960005478</v>
       </c>
       <c r="W10" t="n">
-        <v>184.2708856551153</v>
+        <v>184.0273259635872</v>
       </c>
       <c r="X10" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036448</v>
       </c>
     </row>
     <row r="11">
@@ -5017,55 +5017,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>554.6108700904388</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>326.6213191924214</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>326.6213191924214</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>223.1552313137088</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L15" t="n">
-        <v>1196.088769018223</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M15" t="n">
-        <v>1503.408902298185</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.271529962218</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P15" t="n">
         <v>2317.834075963124</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5503,10 +5503,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5706,13 +5706,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5986,16 +5986,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1004.064043216182</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>714.9354044297402</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>714.9354044297402</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>714.9354044297402</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>486.9458535317228</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6247,31 +6247,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582214</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6414,22 +6414,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6490,25 +6490,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.3089140050932</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1133.156678913841</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>843.7395088768803</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>615.749957978863</v>
+        <v>394.223678370532</v>
       </c>
       <c r="Y31" t="n">
-        <v>394.9573788353329</v>
+        <v>394.223678370532</v>
       </c>
     </row>
     <row r="32">
@@ -6782,19 +6782,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,28 +6922,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6952,19 +6952,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,7 +7168,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7259,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1105.890821793977</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>816.762183007535</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>816.762183007535</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>527.3450129705744</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,34 +7396,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7496,22 +7496,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1429.134095611479</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1429.134095611479</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1429.134095611479</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1429.134095611479</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>1139.716925574518</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>911.7273746765006</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>690.9347955329705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,28 +7669,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7839,13 +7839,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747067</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142001</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>85.3000633212781</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9184,10 +9184,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>180.0237016735871</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>148.2747143566553</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L24" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934479</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>288.4091825776749</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>288.4091825776749</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,10 +10907,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>106.6302041071912</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338568</v>
+        <v>52.03027084125475</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>130.9324435904746</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>39.529018377482</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338574</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24654,19 +24654,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>142.9240589811168</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>52.3159167792686</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>178.509544240926</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25092,10 +25092,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>143.8060970315905</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338571</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>30.37317676570618</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>128.8364567866437</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26316,43 +26316,43 @@
         <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.37164482</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448199</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
         <v>606095.0425934483</v>
       </c>
       <c r="F2" t="n">
+        <v>606095.0425934488</v>
+      </c>
+      <c r="G2" t="n">
         <v>606095.0425934485</v>
       </c>
-      <c r="G2" t="n">
-        <v>606095.0425934487</v>
-      </c>
       <c r="H2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="I2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="K2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="M2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="N2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="O2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="P2" t="n">
         <v>606095.0425934484</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.588086545074475e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>165632.8677865244</v>
       </c>
       <c r="C4" t="n">
-        <v>165632.8677865244</v>
+        <v>165632.8677865243</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>165632.8677865243</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
@@ -26432,7 +26432,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26441,16 +26441,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687066</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-202152.4534196584</v>
+        <v>-202152.4534196586</v>
       </c>
       <c r="C6" t="n">
         <v>387815.425794886</v>
       </c>
       <c r="D6" t="n">
-        <v>387815.4257948858</v>
+        <v>387815.425794886</v>
       </c>
       <c r="E6" t="n">
-        <v>-34201.51867875695</v>
+        <v>-33324.386545007</v>
       </c>
       <c r="F6" t="n">
-        <v>490958.5177981396</v>
+        <v>491835.6499318893</v>
       </c>
       <c r="G6" t="n">
-        <v>490958.5177981397</v>
+        <v>491835.6499318891</v>
       </c>
       <c r="H6" t="n">
-        <v>490958.5177981397</v>
+        <v>491835.649931889</v>
       </c>
       <c r="I6" t="n">
-        <v>490958.5177981396</v>
+        <v>491835.6499318891</v>
       </c>
       <c r="J6" t="n">
-        <v>314535.2986055466</v>
+        <v>315412.4307392961</v>
       </c>
       <c r="K6" t="n">
-        <v>490958.5177981392</v>
+        <v>491835.6499318892</v>
       </c>
       <c r="L6" t="n">
-        <v>490958.5177981396</v>
+        <v>491835.6499318892</v>
       </c>
       <c r="M6" t="n">
-        <v>356157.5025643023</v>
+        <v>357034.6346980518</v>
       </c>
       <c r="N6" t="n">
-        <v>490958.5177981396</v>
+        <v>491835.649931889</v>
       </c>
       <c r="O6" t="n">
-        <v>490958.5177981396</v>
+        <v>491835.6499318889</v>
       </c>
       <c r="P6" t="n">
-        <v>490958.5177981395</v>
+        <v>491835.649931889</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>283.2991409305244</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>31.26361780271915</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>138.7167904366769</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>171.7313405076443</v>
+        <v>171.731340507643</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>96.50703242634913</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853696</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866331</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>393.7163208359944</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>227.5611395882541</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481164</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>19.59084822180904</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491426</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724668</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554472</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633806</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473559</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141116</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188921</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396483</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372668</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078616</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644448</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175852</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383808</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678013</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554471</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633804</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727385</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473558</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141115</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.84709008118892</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396482</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034986</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078615</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644447</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813581</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302245</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175851</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383806</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197226</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315613</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770697</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873156</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770696</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047514</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871396</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873155</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35503,10 +35503,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>570.772884818783</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>127.2102422761848</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35904,10 +35904,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>570.772884818783</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36214,16 +36214,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>462.3874039146953</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>355.36812928818</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813871</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36688,16 +36688,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>570.772884818783</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36925,10 +36925,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>570.772884818783</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37150,7 +37150,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37162,10 +37162,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>570.772884818783</v>
+        <v>516.7753531914248</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,10 +37627,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
